--- a/q_and_a.xlsx
+++ b/q_and_a.xlsx
@@ -10,24 +10,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A1">
-      <text>
-        <t xml:space="preserve">sobre as reuniões dos membros do grupo
-	-Lucas Leme Santos</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
   <si>
     <t>PERGUNTAS</t>
   </si>
@@ -50,25 +34,25 @@
     <t>Quero falar com o líder de vocês</t>
   </si>
   <si>
-    <t>Fale com nossa diretora de estratégia, Camila Lobianco, no número 62 96426900</t>
+    <t>Fale com nossa diretora de estratégia, Camila Lobianco, no número (62) 96426900</t>
   </si>
   <si>
     <t>Vocês oferecem curso basico de Python?</t>
   </si>
   <si>
-    <t>Não oferecemos curso de Python ou de qualquer outra linguagem de programação. Nosso grupo é voltado para pesquisa, aplicações de projetos e realizações de eventos. Não realizamos aulas externas.</t>
+    <t>Não oferecemos curso de Python ou de qualquer outra linguagem de programação. Nosso grupo é voltado para pesquisa, aplicações de projetos e realizações de eventos. Entretanto, temos aulas de Python em nosso canal no youtube</t>
   </si>
   <si>
     <t>Alunos do IME podem fazer parte do grupo Turing também?</t>
   </si>
   <si>
-    <t>Sim, somos abertos a todos os institutos da USP para alunos da graduação e da pós-graduação.</t>
+    <t>Sim, somos abertos a todos os institutos da USP para alunos da graduação e da pós-graduação</t>
   </si>
   <si>
     <t>Alunos da pós Graduação, mestrado e doutorado podem fazer parte do grupo?</t>
   </si>
   <si>
-    <t>alunos da pós Graduação, mestrado e doutorado podem fazer parte do grupo</t>
+    <t>Alunos da pós Graduação, mestrado e doutorado podem fazer parte do grupo</t>
   </si>
   <si>
     <t>Ao participar do grupo, recebe-se algum salário, bolsa ou compensação financeira?</t>
@@ -98,7 +82,8 @@
     <t>Quando abre o Processo Seletivo?</t>
   </si>
   <si>
-    <t>O processo seletivo do Grupo Turing apenas uma vez por ano, no inicio/meio do primeiro semestre. Divulgamos nas nossas redes sociais!</t>
+    <t>O processo seletivo do Grupo Turing abre apenas uma vez por ano, no inicio do ano letivo da USP. Para acompanhar notícias sobre o processo siga nossas redes sociais:
+Instagram: @grupoturing.usp</t>
   </si>
   <si>
     <t>Seria possível indicar pra mim alguns livros de Inteligência Artificial</t>
@@ -116,7 +101,7 @@
     <t>Poderia me explicar como funciona o PS?</t>
   </si>
   <si>
-    <t>As regras específicas do nosso processo seletivo serão informadas quando iniciarmos a divulgação. Mas, em geral, contamos tanto com etapas técnicas, como entrevistas e dinâmicas</t>
+    <t>As regras específicas do nosso processo seletivo serão informadas quando iniciarmos a divulgação. Mas, em geral, contamos com um Case Técnico, uma dinâmica em grupo e uma entrevista ao final.</t>
   </si>
   <si>
     <t>Pra programação vcs usam somente python?</t>
@@ -146,16 +131,19 @@
     <t>Como faço para participar do grupo?</t>
   </si>
   <si>
-    <t>Para participar do Grupo Turing é necessário passar pelo nosso Processo seletivo, que acontece anualmente</t>
+    <t>É necessário passar pelo nosso Processo Seletivo, que acontece anualmente no começo de cada período letivo da USP. Para participar você precisa ser aluno USP (Tanto da graduação quanto da pós).</t>
   </si>
   <si>
     <t>como funciona o processo seletivo?</t>
   </si>
   <si>
+    <t>As regras específicas do nosso processo seletivo serão informadas quando iniciarmos a divulgação. Mas, em geral, contamos contamos com um Case Técnico, uma dinâmica em grupo e uma entrevista ao final.</t>
+  </si>
+  <si>
     <t>Como que vocês funcionam?</t>
   </si>
   <si>
-    <t>Somos um grupo de extensão acadêmica da Universidade de São Paulo que estuda, dissemina e aplica conhecimentos de Inteligência Artificial.  Temos diversas áreas de estudo dentro do grupo. Aplicamos, disseminamos e estudamos IA.Temos uma hierarquia de gestão, que serve somente para atribuir responsabilidades de uma área a uma pessoa. Porém, todos os membros podem opinar e serão ouvidos igualmente, tendo o mesmo poder de voto em decisões e sendo tratados igualmente.</t>
+    <t>Somos um grupo de extensão acadêmica da Universidade de São Paulo que estuda, dissemina e aplica conhecimentos de Inteligência Artificial.Temos diversas áreas de estudo dentro do grupo, como Data Science, Visão Computacional, entre outras.Temos uma hierarquia de gestão, que serve somente para atribuir responsabilidades de uma área a uma pessoa. Porém, todos os membros podem opinar e serão ouvidos igualmente, tendo o mesmo poder de voto em decisões e sendo tratados igualmente.</t>
   </si>
   <si>
     <t>Quando será o próximo processo seletivo?</t>
@@ -206,10 +194,10 @@
     </r>
   </si>
   <si>
-    <t>Há algum bolsista CAPES entre vocês?</t>
-  </si>
-  <si>
-    <t>Não há nenhum bolsista do CAPES no grupo Turing no momento</t>
+    <t>Há algum bolsista entre vocês?</t>
+  </si>
+  <si>
+    <t>Precisaremos checar com nossos membros atuais. Mas por que você gostaria de saber isso?</t>
   </si>
   <si>
     <t>E o que significa "fazer parte do Grupo Turing"?</t>
@@ -221,49 +209,95 @@
     <t>Existem grupos de estudo, de pesquisa, projetos, etc?</t>
   </si>
   <si>
+    <t>Nos consideramos um grupo de pesquisa e de estudos, e aplicamos nosso conhecimento em projetos</t>
+  </si>
+  <si>
     <t>Existe algum espaço ou abertura para divulgar as vagas entre os membros e ex-membros do Grupo?</t>
   </si>
   <si>
-    <t>Gostaria de saber mais sobre o Grupo Turing. Como são os projetos do grupo e quanta experiência em computação seria esperada de um novo membro.</t>
+    <t>Sim, você pode utilizar nosso servidor no Discord para divulgar vagas de emprego - https://discord.gg/26RGmBS 
+Se você fizer questão que seja divulgada apenas para nossos membros entre em contato através do email grupoturing.usp@gmail.com</t>
+  </si>
+  <si>
+    <t>Gostaria de saber mais sobre o Grupo Turing. Como são os projetos do grupo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nossos projetos variam de acordo com nossas áreas e você pode saber mais sobre eles através do nosso instagram e do Turing Talks. </t>
   </si>
   <si>
     <t>Você pode me passar mais informações sobre esta escola?</t>
   </si>
   <si>
+    <t>Não somos uma escola, somos um grupo de estudo e pesquisa que foca em estudar, aplicar e disseminar Inteligência Artificial</t>
+  </si>
+  <si>
     <t>como funciona os projetos/pesquisa de vocês?</t>
   </si>
   <si>
-    <t>Como faz pra ingressar ?</t>
+    <t>Quanta experiência em computação seria esperada de um novo membro</t>
+  </si>
+  <si>
+    <t>Nosso processo seletivo é desenvolvido para que até pessoas sem nenhum conhecimento de programação possam realizar o Case Técnico, nossa intenção é que a pessoa adquira um conhecimento básico durante o precesso e para que depois, se entrar no grupo, desenvolva mais com as aulas ministradas internamente</t>
   </si>
   <si>
     <t>Os eventos contam com certificado de participação?</t>
   </si>
   <si>
+    <t xml:space="preserve">Infelizmente nossos eventos não possuem certificado </t>
+  </si>
+  <si>
     <t>os encontros são presenciais?</t>
   </si>
   <si>
+    <t>Durante a pandemia nossos encontros são realizados de maneira remota (online), mas em um cenário normalizado possuímos encontros presenciais e onlines</t>
+  </si>
+  <si>
     <t>Tem horários fixos?</t>
   </si>
   <si>
+    <t xml:space="preserve">Nossos encontros possuem horários fixos estabelecidos a cada semestre para que todos os membros possam participar </t>
+  </si>
+  <si>
     <t>Onde vocês se encontram?</t>
   </si>
   <si>
+    <t>Num cenário normalizado, nossos encontros acontecem no INOVA USP</t>
+  </si>
+  <si>
     <t>queria saber se pessoas de outras universidades podem se inscrever também?</t>
   </si>
   <si>
+    <t>Infelizmente nosso grupo é voltado apenas para alunos de graduação e pós graduação da USP</t>
+  </si>
+  <si>
     <t>Qual conhecimento prévio é necessário?</t>
   </si>
   <si>
+    <t>Nosso processo seletivo é desenvolvido para que até pessoas sem nenhum conhecimento de programação possam realizar o Case Técnico, nossa intenção é que a pessoa adquira um conhecimento básico durante o processo e para que depois, se entrar no grupo, desenvolva mais com as aulas ministradas internamente</t>
+  </si>
+  <si>
     <t>Como é avaliado o processo seletivo?</t>
   </si>
   <si>
+    <t>Cada etapa do PS é analisada através de reuniões conjuntas com nossos membros, onde cada decisão é tomada com o consenso da maioria</t>
+  </si>
+  <si>
     <t>Se eu fosse selecionado, o que eu faria / aprenderia?</t>
   </si>
   <si>
+    <t>Ao entrar no grupo você passaria pelo Turing Academy, nossas aulinhas internas voltadas para ensinar mais sobre programação e Machine Learning, que possui duração de 6 meses. Em seguida você poderia optar pelas nossas 5 áreas de pesquisa: Visão Computacional, Data Science, Processamento de Linguagem Natural, Aprendizado por reforço e Finanças Quantitativas.</t>
+  </si>
+  <si>
     <t>Poderia dar alguns exemplos de frameworks de IA?</t>
   </si>
   <si>
+    <t>Alguns frameworks de IA são scikit learn, tensorflow, pytorch, pycaffe e trax, mas existem muito mais</t>
+  </si>
+  <si>
     <t>Poderia dar alguns exemplos de bibliotecas de Inteligência Artificial?</t>
+  </si>
+  <si>
+    <t>As bibliotecas variam muito de uma área de I.A para outra. Entretanto, a mais conhecida para tarefas de Machine Learning é a Sklearn. Para conhecer mais sobre outras bibliotecas você pode dar uma olhada nos nossos textos do Medium, os Turing Talks</t>
   </si>
   <si>
     <t>Como posso conhecer o grupo?</t>
@@ -294,7 +328,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Podemos ajudar caso a linguagem seja Python, caso seja outra linguagem, podemos averiguar com nossos membros. De ualquer forma, recomendamos que utilize o nosso servidor do Discord para dúvidas ;) - </t>
+      <t xml:space="preserve">Podemos ajudar caso a linguagem seja Python, caso seja outra linguagem, podemos averiguar com nossos membros. De qualquer forma, recomendamos que utilize o nosso servidor do Discord para dúvidas ;) - </t>
     </r>
     <r>
       <rPr>
@@ -329,20 +363,164 @@
     <t>Vocês fazem design de sobrancelha?</t>
   </si>
   <si>
-    <t>Para esse serviço, você deve contactar nosso membro, Felipe Azank, no zap 19 99662-3900</t>
+    <t>Para esse serviço, você deve contactar nosso membro, Felipe Azank, no zap 19 99662-3900. Ou se preferir invadir a casa dele: Av. Kenkiti Simomoto 728 - Jaguaré ap. 162, 16º andar</t>
   </si>
   <si>
     <t>O Grupo Turing vende projetos para empresas?</t>
   </si>
   <si>
     <t>O Grupo Turing não realiza projetos pagos para empresas no modelo "empresa júnior". Temos parcerias com empresas e realizamos apenas projetos que acreditamos que terão retorno técnico ou gerarão interesse para nossos membros ou retorno para a sociedade</t>
+  </si>
+  <si>
+    <t>Qual o instagram de vocês?</t>
+  </si>
+  <si>
+    <t>Nosso instagram é @grupoturing.usp</t>
+  </si>
+  <si>
+    <t>Qual o email de vocês?</t>
+  </si>
+  <si>
+    <t>Nosso email é grupotuing.usp@gmail.com</t>
+  </si>
+  <si>
+    <t>Qual o LinkedIn de vocês?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nosso LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.linkedin.com/company/grupo-turing/</t>
+    </r>
+  </si>
+  <si>
+    <t>Qual o site de vocês?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nosso site: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>grupoturing.com.br</t>
+    </r>
+  </si>
+  <si>
+    <t>Qual a página do Medium de vocês?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nossa página do Medium, o Turing Talks: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://medium.com/turing-talks</t>
+    </r>
+  </si>
+  <si>
+    <t>Como posso acessar os Turing Talks?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Através deste link: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://medium.com/turing-talks</t>
+    </r>
+  </si>
+  <si>
+    <t>Qual o GitHub de vocês?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nosso GitHub: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/grupoturing</t>
+    </r>
+  </si>
+  <si>
+    <t>Vocês possuem um repositório para o Turing Talks?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sim, você pode acessar através deste link: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/GrupoTuring/Turing-Talks</t>
+    </r>
+  </si>
+  <si>
+    <t>Como posso acessar os códigos completos do Turing Talks?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nossos códigos ficam registrados no GitHub e você pode acessá-los clicando aqui: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/GrupoTuring/Turing-Talks</t>
+    </r>
+  </si>
+  <si>
+    <t>O Sibuya pode me comprar  um sorvete?</t>
+  </si>
+  <si>
+    <t>O SIbuya só dá sorvete para membros de comunidade</t>
+  </si>
+  <si>
+    <t>Obrigado</t>
+  </si>
+  <si>
+    <t>Disponha ;) estamos disponíveis para eventuais dúvidas</t>
+  </si>
+  <si>
+    <t>Valeu</t>
+  </si>
+  <si>
+    <t>Obrigada</t>
+  </si>
+  <si>
+    <t>Nossa, salvou demais</t>
+  </si>
+  <si>
+    <t>O Azank tá bravo?</t>
+  </si>
+  <si>
+    <t>O Azank sempre está pistola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -351,15 +529,21 @@
     <font>
       <b/>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -396,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -406,29 +590,41 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +842,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.57"/>
+    <col customWidth="1" min="1" max="1" width="36.14"/>
     <col customWidth="1" min="2" max="2" width="96.29"/>
   </cols>
   <sheetData>
@@ -750,7 +946,7 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
@@ -782,7 +978,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
@@ -814,7 +1010,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
@@ -846,7 +1042,7 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
@@ -910,7 +1106,7 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
@@ -942,7 +1138,7 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2"/>
@@ -1038,7 +1234,7 @@
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2"/>
@@ -1102,7 +1298,7 @@
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2"/>
@@ -1134,7 +1330,7 @@
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2"/>
@@ -1166,8 +1362,8 @@
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1196,10 +1392,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1228,10 +1424,10 @@
     </row>
     <row r="19" ht="45.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1260,10 +1456,10 @@
     </row>
     <row r="20" ht="45.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1292,10 +1488,10 @@
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1324,10 +1520,10 @@
     </row>
     <row r="22" ht="45.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1356,10 +1552,10 @@
     </row>
     <row r="23" ht="45.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1388,10 +1584,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1419,11 +1615,11 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="45.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1452,10 +1648,10 @@
     </row>
     <row r="26" ht="45.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1484,9 +1680,11 @@
     </row>
     <row r="27" ht="45.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1512,11 +1710,13 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="45.75" customHeight="1">
+    <row r="28" ht="59.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1543,10 +1743,12 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="64.5" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="7"/>
+      <c r="A29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1574,9 +1776,11 @@
     </row>
     <row r="30" ht="45.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1604,9 +1808,11 @@
     </row>
     <row r="31" ht="45.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1633,10 +1839,12 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="45.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="7"/>
+      <c r="A32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1664,9 +1872,11 @@
     </row>
     <row r="33" ht="45.75" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1694,9 +1904,11 @@
     </row>
     <row r="34" ht="45.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1724,9 +1936,11 @@
     </row>
     <row r="35" ht="45.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1754,9 +1968,11 @@
     </row>
     <row r="36" ht="45.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1784,9 +2000,11 @@
     </row>
     <row r="37" ht="45.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1812,11 +2030,13 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="45.75" customHeight="1">
+    <row r="38" ht="55.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1844,9 +2064,11 @@
     </row>
     <row r="39" ht="45.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1872,11 +2094,13 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="45.75" customHeight="1">
+    <row r="40" ht="57.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1904,9 +2128,11 @@
     </row>
     <row r="41" ht="45.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1934,9 +2160,11 @@
     </row>
     <row r="42" ht="45.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1964,10 +2192,10 @@
     </row>
     <row r="43" ht="45.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1996,10 +2224,10 @@
     </row>
     <row r="44" ht="45.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2028,10 +2256,10 @@
     </row>
     <row r="45" ht="45.75" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2060,10 +2288,10 @@
     </row>
     <row r="46" ht="45.75" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2092,10 +2320,10 @@
     </row>
     <row r="47" ht="45.75" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2124,10 +2352,10 @@
     </row>
     <row r="48" ht="45.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2156,10 +2384,10 @@
     </row>
     <row r="49" ht="45.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2188,10 +2416,10 @@
     </row>
     <row r="50" ht="45.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2219,8 +2447,12 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" ht="45.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2246,9 +2478,13 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="45.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="2"/>
+    <row r="52" ht="28.5" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2274,15 +2510,125 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" ht="21.75" customHeight="1">
+      <c r="A54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" ht="33.0" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="B9"/>
-    <hyperlink r:id="rId3" ref="B15"/>
-    <hyperlink r:id="rId4" ref="B24"/>
-    <hyperlink r:id="rId5" ref="B43"/>
-    <hyperlink r:id="rId6" ref="B45"/>
+    <hyperlink r:id="rId1" ref="B9"/>
+    <hyperlink r:id="rId2" ref="B15"/>
+    <hyperlink r:id="rId3" ref="B24"/>
+    <hyperlink r:id="rId4" ref="B43"/>
+    <hyperlink r:id="rId5" ref="B45"/>
+    <hyperlink r:id="rId6" ref="B53"/>
+    <hyperlink r:id="rId7" ref="B54"/>
+    <hyperlink r:id="rId8" ref="B55"/>
+    <hyperlink r:id="rId9" ref="B56"/>
+    <hyperlink r:id="rId10" ref="B57"/>
+    <hyperlink r:id="rId11" ref="B58"/>
+    <hyperlink r:id="rId12" ref="B59"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>